--- a/biology/Botanique/Colutea_cilicica/Colutea_cilicica.xlsx
+++ b/biology/Botanique/Colutea_cilicica/Colutea_cilicica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le baguenaudier de Cilicie - Colutea cilicica - est une espèce de plantes de la famille des Fabacées originaire du Proche-Orient.
 </t>
@@ -511,7 +523,9 @@
           <t>Description[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Colutea cilicica est un arbuste caduc pouvant atteindre cinq mètres de haut.
 Toutes les parties jeunes sont couvertes d'une légère pilosité, absente sur les plus anciennes, qui sont grisâtres.
@@ -548,10 +562,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le baguenaudier de Cilicie est originaire du Proche-Orient : Turquie jusqu'au Caucase, Liban, Syrie.
-Il y croît dans des endroits rocheux, sur sols calcaires, parmi les arbustes et buissons xérophiles ou semi-xérophiles[1].
+Il y croît dans des endroits rocheux, sur sols calcaires, parmi les arbustes et buissons xérophiles ou semi-xérophiles.
 </t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La principale utilisation de cette espèce est ornementale. Mais elle reste peu répandue en France, malgré quelques offres d'horticulteurs et sa grande rusticité.
 </t>
@@ -611,11 +629,13 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Edmond Boissier et Benedict Balansa décrivent une première fois cette espèce en 1856[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Edmond Boissier et Benedict Balansa décrivent une première fois cette espèce en 1856.
 En 1967, Kasimierz Browicz la place dans la section Colutea, sous-section Arborescentes.
-En 1972, Jiří Ponert en fait une sous-espèce de Colutea arborescens : Colutea arborescens subsp. cilicica (Boiss. &amp; Balansa) Ponert[3]. Ce déplacement a été invalidé par Sergei Kirillovich Czerepanov, en 1981[4].
+En 1972, Jiří Ponert en fait une sous-espèce de Colutea arborescens : Colutea arborescens subsp. cilicica (Boiss. &amp; Balansa) Ponert. Ce déplacement a été invalidé par Sergei Kirillovich Czerepanov, en 1981.
 			Floraison et jeunes fruits.
 			Floraison.
 </t>
